--- a/downloaded_files/CMPS405_Tutorial-35568.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35568.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -141,6 +141,15 @@
     <x:t>Abdelrahman Sherif Ibrahim Nabil Mohamed Talaat Abohashish</x:t>
   </x:si>
   <x:si>
+    <x:t>1220096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد فتحى محمد موسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman mohamed fathy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220255</x:t>
   </x:si>
   <x:si>
@@ -195,6 +204,15 @@
     <x:t>OMAR MAHMOUD DEMERDASH SAYED AHMED</x:t>
   </x:si>
   <x:si>
+    <x:t>1220309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو اشرف على محمود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AmrAshrafAli</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230159</x:t>
   </x:si>
   <x:si>
@@ -220,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>MARK MAGED NAGEH LABIB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد سيد محمد عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed ahmed sayed mohamed awad</x:t>
   </x:si>
   <x:si>
     <x:t>4230189</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -717,7 +726,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.620625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.100625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1182,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45927.4258798958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6644033912</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4149737269</x:v>
+        <x:v>45906.6644033912</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4204701389</x:v>
+        <x:v>45909.4149737269</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45909.4204701389</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45927.4144725694</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6871045139</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6871045139</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4144641204</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4289402778</x:v>
+        <x:v>45907.4144641204</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45909.4289402778</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4146748843</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45907.4146748843</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4408829514</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45909.4408829514</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS405_Tutorial-35568.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35568.xlsx
@@ -66,7 +66,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1220003</x:t>
@@ -84,7 +84,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1220007</x:t>

--- a/downloaded_files/CMPS405_Tutorial-35568.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35568.xlsx
@@ -111,7 +111,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1220011</x:t>
@@ -129,7 +129,7 @@
     <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
   </x:si>
   <x:si>
-    <x:t>abdelrahman sameh abdelazeem</x:t>
+    <x:t>ABDELRAHMAN SAMEH ABDELAZEEM MOHAMED ALY</x:t>
   </x:si>
   <x:si>
     <x:t>1220182</x:t>
@@ -165,7 +165,7 @@
     <x:t>عبدالرحمن مصطفى محمد رضوان احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+    <x:t>ABDELRAHMAN MOSTAFA MOHAMMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220261</x:t>
@@ -291,7 +291,7 @@
     <x:t>مصطفى ايهاب حلمي محمد رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
+    <x:t>MOSTAFA EHAB HELMY MOHAMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220106</x:t>

--- a/downloaded_files/CMPS405_Tutorial-35568.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35568.xlsx
@@ -264,7 +264,7 @@
     <x:t>محمد عمرو ابراهيم المصري</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
+    <x:t>Mohamed Amr Ibrahim Elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220021</x:t>

--- a/downloaded_files/CMPS405_Tutorial-35568.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35568.xlsx
@@ -111,7 +111,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEK DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1220011</x:t>

--- a/downloaded_files/CMPS405_Tutorial-35568.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35568.xlsx
@@ -210,7 +210,7 @@
     <x:t>عمرو اشرف على محمود حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>AmrAshrafAli</x:t>
+    <x:t>Amr Ashraf Ali Mahmoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4230159</x:t>
